--- a/file1.xlsx
+++ b/file1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'Match Data'!$A$2:$L$2</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'Match Data'!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Data Customer</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Collector</t>
   </si>
   <si>
-    <t>Agencies</t>
-  </si>
-  <si>
     <t>Address 3</t>
   </si>
   <si>
@@ -61,16 +58,40 @@
     <t>Lokasi</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>SURYATI</t>
+  </si>
+  <si>
+    <t>5.48988890510329E+15</t>
+  </si>
+  <si>
     <t>MALEBER</t>
   </si>
   <si>
     <t>ANDIR</t>
   </si>
   <si>
-    <t>SURYATI</t>
-  </si>
-  <si>
     <t>dpt_andir</t>
+  </si>
+  <si>
+    <t>apa saja</t>
+  </si>
+  <si>
+    <t>12312312312</t>
+  </si>
+  <si>
+    <t>Yati</t>
+  </si>
+  <si>
+    <t>MARDIN</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>cendrawasih</t>
   </si>
   <si>
     <t>SUKAPURA</t>
@@ -397,7 +418,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -435,30 +456,99 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>40184</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="G4">
+        <v>40184</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>40285</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$2:$L$2"/>
+  <autoFilter ref="$A$2:$K$2"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
 </worksheet>
 </file>